--- a/docs/Virtusa Onboarding App.xlsx
+++ b/docs/Virtusa Onboarding App.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MILAN\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milan\Virtusa\apptracker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,12 +65,6 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Virtusa</t>
-  </si>
-  <si>
-    <t>Virtusa Onboarding Live</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
@@ -78,10 +72,6 @@
   </si>
   <si>
     <t>Copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
-</t>
   </si>
   <si>
     <t>App Name</t>
@@ -355,6 +345,16 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Onboarding Live</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
+</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1310,6 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -12439,7 +12440,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12456,28 +12457,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="D1" s="109" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="110" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D2" s="109" t="str">
         <f>CONCATENATE("Welcome ",uname)</f>
@@ -12501,7 +12502,7 @@
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="116" t="str">
         <f>appName</f>
-        <v>Virtusa Onboarding Live</v>
+        <v>Onboarding Live</v>
       </c>
       <c r="C5" s="117"/>
       <c r="D5" s="117"/>
@@ -12578,8 +12579,8 @@
       <c r="E11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="95" t="s">
-        <v>9</v>
+      <c r="F11" s="146" t="s">
+        <v>104</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
@@ -12657,7 +12658,7 @@
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="119" t="str">
         <f>copyright</f>
-        <v xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
+        <v xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
 </v>
       </c>
       <c r="C18" s="120"/>
@@ -12687,9 +12688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12715,7 +12714,7 @@
   <sheetData>
     <row r="2" spans="2:18" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="112" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12745,7 +12744,7 @@
     <row r="5" spans="2:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="132" t="str">
         <f>siteName</f>
-        <v>Virtusa Onboarding Live</v>
+        <v>Onboarding Live</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -12770,21 +12769,21 @@
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="D7" s="124" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="125"/>
       <c r="F7" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="39"/>
       <c r="M7" s="111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O7" s="111" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="111" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R7" s="14"/>
     </row>
@@ -12809,7 +12808,7 @@
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13"/>
       <c r="D9" s="20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K9" s="135" t="s">
         <v>4</v>
@@ -12820,57 +12819,57 @@
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13"/>
       <c r="D10" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="136" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="D11" s="41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="100" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="26" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M11" s="24"/>
       <c r="R11" s="14"/>
@@ -12878,20 +12877,20 @@
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="29" t="s">
@@ -12906,24 +12905,24 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13" s="13"/>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L13" s="27">
         <v>2809501253</v>
@@ -12934,24 +12933,24 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="127"/>
       <c r="G14" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I14" s="105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L14" s="27">
         <v>9918105401</v>
@@ -12962,20 +12961,20 @@
     <row r="15" spans="2:18" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="33"/>
       <c r="D15" s="44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="99" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I15" s="106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="36"/>
@@ -12988,7 +12987,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16" s="13"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R16" s="14"/>
     </row>
@@ -13023,7 +13022,7 @@
     <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="128" t="str">
         <f>copyright</f>
-        <v xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
+        <v xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
 </v>
       </c>
       <c r="D24" s="129"/>
@@ -13058,7 +13057,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
@@ -13106,7 +13105,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -13114,7 +13113,7 @@
         <v>200</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -13122,7 +13121,7 @@
         <v>300</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -13130,7 +13129,7 @@
         <v>400</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -13138,10 +13137,10 @@
         <v>500</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -13149,7 +13148,7 @@
         <v>600</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -13157,7 +13156,7 @@
         <v>700</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -13165,7 +13164,7 @@
         <v>800</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -13173,7 +13172,7 @@
         <v>900</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -13181,7 +13180,7 @@
         <v>1000</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -13189,7 +13188,7 @@
         <v>1010</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
@@ -13197,7 +13196,7 @@
         <v>1100</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
@@ -13205,17 +13204,17 @@
         <v>2000</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E52" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13242,7 +13241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13265,7 +13266,7 @@
   <sheetData>
     <row r="2" spans="3:17" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="112" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13294,7 +13295,7 @@
     <row r="5" spans="3:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="132" t="str">
         <f>siteName</f>
-        <v>Virtusa Onboarding Live</v>
+        <v>Onboarding Live</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -13318,7 +13319,7 @@
     <row r="7" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="13"/>
       <c r="D7" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="60"/>
       <c r="G7" s="45"/>
@@ -13332,15 +13333,15 @@
       <c r="E8" s="49"/>
       <c r="F8" s="8"/>
       <c r="G8" s="50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -13350,7 +13351,7 @@
     <row r="9" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13"/>
       <c r="D9" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
@@ -13359,11 +13360,11 @@
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J9" s="55"/>
       <c r="K9" s="58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L9" s="58"/>
       <c r="M9" s="58"/>
@@ -13377,7 +13378,7 @@
     <row r="11" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
       <c r="D11" s="67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="61"/>
       <c r="G11" s="45"/>
@@ -13386,20 +13387,20 @@
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -13409,20 +13410,20 @@
     <row r="13" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
       <c r="D13" s="53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
@@ -13436,7 +13437,7 @@
     <row r="15" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13"/>
       <c r="D15" s="66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="60"/>
       <c r="G15" s="45"/>
@@ -13445,7 +13446,7 @@
     <row r="16" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="13"/>
       <c r="D16" s="64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="8"/>
@@ -13462,7 +13463,7 @@
     <row r="17" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="13"/>
       <c r="D17" s="64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="46"/>
       <c r="G17" s="45"/>
@@ -13473,7 +13474,7 @@
     <row r="18" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
       <c r="D18" s="64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18" s="46"/>
       <c r="G18" s="45"/>
@@ -13484,7 +13485,7 @@
     <row r="19" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="13"/>
       <c r="D19" s="64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="46"/>
       <c r="G19" s="45"/>
@@ -13495,7 +13496,7 @@
     <row r="20" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="13"/>
       <c r="D20" s="64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" s="46"/>
       <c r="G20" s="45"/>
@@ -13506,7 +13507,7 @@
     <row r="21" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13"/>
       <c r="D21" s="64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" s="46"/>
       <c r="G21" s="45"/>
@@ -13517,7 +13518,7 @@
     <row r="22" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22" s="46"/>
       <c r="G22" s="45"/>
@@ -13537,7 +13538,7 @@
     <row r="24" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13"/>
       <c r="D24" s="53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
@@ -13558,7 +13559,7 @@
     <row r="26" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13"/>
       <c r="D26" s="66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="60"/>
       <c r="G26" s="45"/>
@@ -13567,16 +13568,16 @@
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
       <c r="D27" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="88" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H27" s="88"/>
       <c r="I27" s="88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -13591,7 +13592,7 @@
         <v>42911</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N28" s="14"/>
       <c r="Q28" s="14"/>
@@ -13602,10 +13603,10 @@
         <v>42911</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N29" s="14"/>
       <c r="Q29" s="14"/>
@@ -13616,10 +13617,10 @@
         <v>42912</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N30" s="14"/>
       <c r="Q30" s="14"/>
@@ -13630,10 +13631,10 @@
         <v>42912</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N31" s="14"/>
       <c r="Q31" s="14"/>
@@ -13644,7 +13645,7 @@
         <v>42911</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N32" s="14"/>
       <c r="Q32" s="14"/>
@@ -13653,7 +13654,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="G33" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N33" s="14"/>
       <c r="Q33" s="14"/>
@@ -13662,7 +13663,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="G34" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N34" s="14"/>
       <c r="Q34" s="14"/>
@@ -13689,7 +13690,7 @@
     <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="128" t="str">
         <f>copyright</f>
-        <v xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
+        <v xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
 </v>
       </c>
       <c r="D37" s="129"/>
@@ -13750,7 +13751,7 @@
   <sheetData>
     <row r="2" spans="3:21" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="114" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13783,7 +13784,7 @@
     <row r="5" spans="3:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="139" t="str">
         <f>appName</f>
-        <v>Virtusa Onboarding Live</v>
+        <v>Onboarding Live</v>
       </c>
       <c r="D5" s="140"/>
       <c r="E5" s="140"/>
@@ -13834,7 +13835,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -13849,10 +13850,10 @@
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="75"/>
@@ -13861,7 +13862,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L8" s="75"/>
       <c r="M8" s="73"/>
@@ -13877,7 +13878,7 @@
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="75"/>
@@ -13886,7 +13887,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="73"/>
@@ -13901,7 +13902,7 @@
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="75"/>
@@ -13910,7 +13911,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L10" s="75"/>
       <c r="M10" s="73"/>
@@ -13926,7 +13927,7 @@
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="75"/>
@@ -13935,7 +13936,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L11" s="75"/>
       <c r="M11" s="73"/>
@@ -13951,7 +13952,7 @@
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="75"/>
@@ -13974,7 +13975,7 @@
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="75"/>
@@ -13997,7 +13998,7 @@
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="75"/>
@@ -14020,7 +14021,7 @@
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" s="72"/>
       <c r="F15" s="75"/>
@@ -14043,7 +14044,7 @@
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="75"/>
@@ -14087,7 +14088,7 @@
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" s="72"/>
       <c r="F18" s="76"/>
@@ -14175,13 +14176,13 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="142" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G22" s="143"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="142" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K22" s="143"/>
       <c r="L22" s="3"/>
@@ -14243,7 +14244,7 @@
       <c r="F25" s="84"/>
       <c r="G25" s="144" t="str">
         <f>copyright</f>
-        <v xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
+        <v xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
 </v>
       </c>
       <c r="H25" s="144"/>
@@ -14309,7 +14310,7 @@
   <sheetData>
     <row r="2" spans="3:21" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="114" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -14342,7 +14343,7 @@
     <row r="5" spans="3:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="139" t="str">
         <f>appName</f>
-        <v>Virtusa Onboarding Live</v>
+        <v>Onboarding Live</v>
       </c>
       <c r="D5" s="140"/>
       <c r="E5" s="140"/>
@@ -14386,7 +14387,7 @@
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="75"/>
@@ -14408,10 +14409,10 @@
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="75"/>
@@ -14434,7 +14435,7 @@
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="75"/>
@@ -14456,7 +14457,7 @@
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="75"/>
@@ -14479,7 +14480,7 @@
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="75"/>
@@ -14546,13 +14547,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="142" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="143"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="142" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K14" s="143"/>
       <c r="L14" s="3"/>
@@ -14614,7 +14615,7 @@
       <c r="F17" s="84"/>
       <c r="G17" s="144" t="str">
         <f>copyright</f>
-        <v xml:space="preserve">Copyright © 2017 Virtusa Corporation. All Rights Reserved.
+        <v xml:space="preserve">Copyright © 2017  Corporation. All Rights Reserved.
 </v>
       </c>
       <c r="H17" s="144"/>
